--- a/medicine/Sexualité et sexologie/Charles_Knowlton/Charles_Knowlton.xlsx
+++ b/medicine/Sexualité et sexologie/Charles_Knowlton/Charles_Knowlton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Knowlton (né à Templeton (Massachusetts) le 10 mai 1800 et décédé le 20 février 1850) est un médecin et écrivain américain considéré comme un des pionniers de la libre pensée aux États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors qu'il est étudiant en médecine au Dartmouth College, il est condamné à deux mois de prison pour violation de sépulture. Il avait déterré un corps afin de le disséquer.
 Médecin en 1824, il se fait connaître en 1829 avec la publication d’Elements of Modern Materialism où il attaque l'influence chrétienne et se considère comme « un Infidèle ».
@@ -545,7 +559,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elements of Modern Materialism (Adams, Mass.: Oakey, 1829)</t>
         </is>
